--- a/medicine/Psychotrope/Usine_de_cigarettes_de_Furiani/Usine_de_cigarettes_de_Furiani.xlsx
+++ b/medicine/Psychotrope/Usine_de_cigarettes_de_Furiani/Usine_de_cigarettes_de_Furiani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'usine de cigarettes de Furiani est un établissement industriel situé dans la zone industrielle de Furiani, en Corse, spécialisée dans la fabrication des cigarettes. Elle est le siège et l'unique établissement de la Manufacture corse de tabacs (Macotab) depuis sa création en 1961.
  Portail de la production industrielle   Portail du tabac   Portail de la Corse                   </t>
